--- a/data/trans_orig/IMC_R2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IMC_R2-Edad-trans_orig.xlsx
@@ -554,7 +554,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que, sufre obesidad en 2007 (tasa de respuesta: 98,86%)</t>
+          <t>Población según si tienen obesidad en 2007 (tasa de respuesta: 98,86%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2533,7 +2533,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que, sufre obesidad en 2012 (tasa de respuesta: 96,9%)</t>
+          <t>Población según si tienen obesidad en 2012 (tasa de respuesta: 96,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4512,7 +4512,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que, sufre obesidad en 2016 (tasa de respuesta: 95,54%)</t>
+          <t>Población según si tienen obesidad en 2016 (tasa de respuesta: 95,54%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6491,7 +6491,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que, sufre obesidad en 2023 (tasa de respuesta: 96,36%)</t>
+          <t>Población según si tienen obesidad en 2023 (tasa de respuesta: 96,36%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/IMC_R2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IMC_R2-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>13034</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7051</v>
+        <v>6901</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>20912</v>
+        <v>20627</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02674746914736807</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01446948272476855</v>
+        <v>0.01416049897877515</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04291288471011535</v>
+        <v>0.04232790246202844</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>13</v>
@@ -765,19 +765,19 @@
         <v>12063</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6554</v>
+        <v>6208</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>20865</v>
+        <v>20039</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02590946761180031</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01407622544508414</v>
+        <v>0.0133341579730948</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04481378170412877</v>
+        <v>0.04304123092847513</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>27</v>
@@ -786,19 +786,19 @@
         <v>25097</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>16552</v>
+        <v>16768</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>35822</v>
+        <v>35649</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02633801946513419</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01736974902102375</v>
+        <v>0.01759647622606862</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03759295405454307</v>
+        <v>0.03741117242995007</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>474274</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>466396</v>
+        <v>466681</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>480257</v>
+        <v>480407</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.973252530852632</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9570871152898851</v>
+        <v>0.9576720975379716</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9855305172752317</v>
+        <v>0.9858395010212249</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>474</v>
@@ -836,19 +836,19 @@
         <v>453524</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>444722</v>
+        <v>445548</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>459033</v>
+        <v>459379</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9740905323881996</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9551862182958711</v>
+        <v>0.9569587690715251</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9859237745549159</v>
+        <v>0.9866658420269053</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>954</v>
@@ -857,19 +857,19 @@
         <v>927799</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>917074</v>
+        <v>917247</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>936344</v>
+        <v>936128</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9736619805348659</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9624070459454569</v>
+        <v>0.9625888275700499</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9826302509789762</v>
+        <v>0.9824035237739314</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>46647</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>35244</v>
+        <v>35551</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>62695</v>
+        <v>62947</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06388796277399063</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04827030969080804</v>
+        <v>0.04869143379387519</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08586772557007233</v>
+        <v>0.0862134803303151</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>43</v>
@@ -982,19 +982,19 @@
         <v>45154</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>32994</v>
+        <v>33629</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>59784</v>
+        <v>59382</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07265588822092746</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05308865783609587</v>
+        <v>0.05411101030510315</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09619630632715546</v>
+        <v>0.09554902128810455</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>88</v>
@@ -1003,19 +1003,19 @@
         <v>91801</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>74789</v>
+        <v>74403</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>112105</v>
+        <v>111111</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06791952915815082</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05533298073809476</v>
+        <v>0.05504752189773999</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08294152870830267</v>
+        <v>0.08220591936621259</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>683483</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>667435</v>
+        <v>667183</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>694886</v>
+        <v>694579</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9361120372260093</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9141322744299276</v>
+        <v>0.9137865196696848</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.951729690309192</v>
+        <v>0.9513085662061247</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>544</v>
@@ -1053,19 +1053,19 @@
         <v>576329</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>561699</v>
+        <v>562101</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>588489</v>
+        <v>587854</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9273441117790725</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9038036936728449</v>
+        <v>0.9044509787118958</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9469113421639043</v>
+        <v>0.9458889896948969</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1197</v>
@@ -1074,19 +1074,19 @@
         <v>1259811</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1239507</v>
+        <v>1240501</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1276823</v>
+        <v>1277209</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9320804708418492</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9170584712916974</v>
+        <v>0.9177940806337874</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9446670192619052</v>
+        <v>0.94495247810226</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>82236</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>66751</v>
+        <v>67392</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>99186</v>
+        <v>102085</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1292957137146641</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1049496360301096</v>
+        <v>0.1059567108198913</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1559446251114701</v>
+        <v>0.1605032922284948</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>67</v>
@@ -1199,19 +1199,19 @@
         <v>72663</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>57796</v>
+        <v>57388</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>90697</v>
+        <v>90386</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1057915176291232</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08414652909856826</v>
+        <v>0.08355139995321891</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1320472833562942</v>
+        <v>0.1315942749311058</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>146</v>
@@ -1220,19 +1220,19 @@
         <v>154900</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>132829</v>
+        <v>134178</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>180337</v>
+        <v>181025</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1170921226169322</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1004083286278966</v>
+        <v>0.1014279954773585</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1363204726141346</v>
+        <v>0.136840636612794</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>553797</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>536847</v>
+        <v>533948</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>569282</v>
+        <v>568641</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8707042862853359</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8440553748885299</v>
+        <v>0.839496707771505</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8950503639698905</v>
+        <v>0.8940432891801087</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>589</v>
@@ -1270,19 +1270,19 @@
         <v>614192</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>596158</v>
+        <v>596469</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>629059</v>
+        <v>629467</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8942084823708768</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8679527166437059</v>
+        <v>0.8684057250688941</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9158534709014318</v>
+        <v>0.9164486000467811</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1120</v>
@@ -1291,19 +1291,19 @@
         <v>1167988</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1142551</v>
+        <v>1141863</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1190059</v>
+        <v>1188710</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8829078773830679</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8636795273858654</v>
+        <v>0.8631593633872058</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8995916713721033</v>
+        <v>0.8985720045226413</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>76039</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>60385</v>
+        <v>60290</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>93260</v>
+        <v>98492</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1472877396009682</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1169661686870196</v>
+        <v>0.1167809981732156</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1806451537436128</v>
+        <v>0.1907781015809209</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>73</v>
@@ -1416,19 +1416,19 @@
         <v>74387</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>59983</v>
+        <v>60720</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>90223</v>
+        <v>92067</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.146513248335628</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1181426810377399</v>
+        <v>0.1195949778215507</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1777054704683781</v>
+        <v>0.1813357848907517</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>141</v>
@@ -1437,19 +1437,19 @@
         <v>150426</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>129037</v>
+        <v>128940</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>172761</v>
+        <v>178119</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1469037274606952</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1260153102319908</v>
+        <v>0.1259208254360074</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1687154826571909</v>
+        <v>0.1739486419730016</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>440224</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>423003</v>
+        <v>417771</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>455878</v>
+        <v>455973</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8527122603990318</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8193548462563872</v>
+        <v>0.809221898419079</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8830338313129804</v>
+        <v>0.8832190018267845</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>422</v>
@@ -1487,19 +1487,19 @@
         <v>433326</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>417490</v>
+        <v>415646</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>447730</v>
+        <v>446993</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.853486751664372</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8222945295316217</v>
+        <v>0.8186642151092489</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8818573189622601</v>
+        <v>0.8804050221784494</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>835</v>
@@ -1508,19 +1508,19 @@
         <v>873551</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>851216</v>
+        <v>845858</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>894940</v>
+        <v>895037</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8530962725393049</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8312845173428091</v>
+        <v>0.8260513580269987</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8739846897680091</v>
+        <v>0.8740791745639926</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>84141</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>69586</v>
+        <v>69626</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>101614</v>
+        <v>100950</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2191815046121144</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1812678264139688</v>
+        <v>0.1813715283103093</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2646974656639612</v>
+        <v>0.2629682424650135</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>87</v>
@@ -1633,19 +1633,19 @@
         <v>88060</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>73690</v>
+        <v>72991</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>105187</v>
+        <v>104329</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.222950218465526</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1865682449815671</v>
+        <v>0.1847966132558889</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2663119506799671</v>
+        <v>0.2641386103940928</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>174</v>
@@ -1654,19 +1654,19 @@
         <v>172201</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>148488</v>
+        <v>152557</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>196558</v>
+        <v>199500</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2210926986849856</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1906464992792045</v>
+        <v>0.1958711603130566</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2523653441687604</v>
+        <v>0.2561429049939472</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>299745</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>282272</v>
+        <v>282936</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>314300</v>
+        <v>314260</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7808184953878856</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7353025343360396</v>
+        <v>0.7370317575349864</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8187321735860312</v>
+        <v>0.8186284716896907</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>300</v>
@@ -1704,19 +1704,19 @@
         <v>306918</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>289791</v>
+        <v>290649</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>321288</v>
+        <v>321987</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.777049781534474</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7336880493200332</v>
+        <v>0.7358613896059073</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.813431755018433</v>
+        <v>0.8152033867441111</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>602</v>
@@ -1725,19 +1725,19 @@
         <v>606663</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>582306</v>
+        <v>579364</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>630376</v>
+        <v>626307</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7789073013150144</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7476346558312396</v>
+        <v>0.7438570950060529</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8093535007207955</v>
+        <v>0.8041288396869436</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>49018</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>37404</v>
+        <v>36255</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>62125</v>
+        <v>62023</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1707175953441891</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1302698837361746</v>
+        <v>0.126268249869826</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2163657743004941</v>
+        <v>0.2160094062888318</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>116</v>
@@ -1850,19 +1850,19 @@
         <v>107241</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>91501</v>
+        <v>92031</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>123492</v>
+        <v>123702</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3157562619842344</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2694129807198657</v>
+        <v>0.2709739958145816</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3636076305181186</v>
+        <v>0.3642240616694808</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>165</v>
@@ -1871,19 +1871,19 @@
         <v>156259</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>134713</v>
+        <v>135305</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>177855</v>
+        <v>177865</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.249311503305033</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2149355545450177</v>
+        <v>0.2158803158972213</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.283767976642648</v>
+        <v>0.2837836280575194</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>238112</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>225005</v>
+        <v>225107</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>249726</v>
+        <v>250875</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8292824046558108</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7836342256995057</v>
+        <v>0.783990593711168</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8697301162638247</v>
+        <v>0.8737317501301736</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>252</v>
@@ -1921,19 +1921,19 @@
         <v>232390</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>216139</v>
+        <v>215929</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>248130</v>
+        <v>247600</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6842437380157657</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6363923694818813</v>
+        <v>0.6357759383305192</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7305870192801344</v>
+        <v>0.7290260041854183</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>500</v>
@@ -1942,19 +1942,19 @@
         <v>470502</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>448906</v>
+        <v>448896</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>492048</v>
+        <v>491456</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.750688496694967</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7162320233573519</v>
+        <v>0.7162163719424806</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7850644454549822</v>
+        <v>0.7841196841027787</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>44337</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>33086</v>
+        <v>32533</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>56517</v>
+        <v>56862</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2180540834592469</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1627202419931379</v>
+        <v>0.1600022789710663</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2779573216443929</v>
+        <v>0.2796529989360918</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>84</v>
@@ -2067,19 +2067,19 @@
         <v>97742</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>81991</v>
+        <v>80810</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>114551</v>
+        <v>115703</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3085962348947757</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2588654908614496</v>
+        <v>0.255136865793801</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3616650719062407</v>
+        <v>0.36530272397051</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>127</v>
@@ -2088,19 +2088,19 @@
         <v>142079</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>122145</v>
+        <v>123196</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>163329</v>
+        <v>164419</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2731967449197245</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2348680077011891</v>
+        <v>0.2368887028652614</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3140583654655075</v>
+        <v>0.3161545586714939</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>158992</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>146812</v>
+        <v>146467</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>170243</v>
+        <v>170796</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7819459165407531</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7220426783556072</v>
+        <v>0.7203470010639083</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8372797580068622</v>
+        <v>0.8399977210289337</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>191</v>
@@ -2138,19 +2138,19 @@
         <v>218989</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>202180</v>
+        <v>201028</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>234740</v>
+        <v>235921</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6914037651052244</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6383349280937594</v>
+        <v>0.63469727602949</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7411345091385506</v>
+        <v>0.7448631342061994</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>361</v>
@@ -2159,19 +2159,19 @@
         <v>377981</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>356731</v>
+        <v>355641</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>397915</v>
+        <v>396864</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7268032550802754</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6859416345344928</v>
+        <v>0.6838454413285062</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7651319922988109</v>
+        <v>0.7631112971347387</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>395452</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>356348</v>
+        <v>361018</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>431024</v>
+        <v>438086</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1218995832882864</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1098455464763209</v>
+        <v>0.1112850688584412</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1328646971733349</v>
+        <v>0.1350416489880544</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>483</v>
@@ -2284,19 +2284,19 @@
         <v>497311</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>456279</v>
+        <v>453860</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>540944</v>
+        <v>538448</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1492090746758289</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1368983096644281</v>
+        <v>0.1361725519277852</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1623005506536087</v>
+        <v>0.161551498502343</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>868</v>
@@ -2305,19 +2305,19 @@
         <v>892762</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>839611</v>
+        <v>841436</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>950390</v>
+        <v>947870</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1357388950030567</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1276574904101917</v>
+        <v>0.127935010236748</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1445007979349868</v>
+        <v>0.1441176397000261</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>2848627</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2813055</v>
+        <v>2805993</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2887731</v>
+        <v>2883061</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8781004167117136</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8671353028266651</v>
+        <v>0.8649583510119456</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8901544535236791</v>
+        <v>0.8887149311415589</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2772</v>
@@ -2355,19 +2355,19 @@
         <v>2835667</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2792034</v>
+        <v>2794530</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2876699</v>
+        <v>2879118</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8507909253241711</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8376994493463912</v>
+        <v>0.8384485014976569</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8631016903355717</v>
+        <v>0.8638274480722148</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5569</v>
@@ -2376,19 +2376,19 @@
         <v>5684295</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5626667</v>
+        <v>5629187</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5737446</v>
+        <v>5735621</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8642611049969433</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8554992020650134</v>
+        <v>0.855882360299974</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8723425095898083</v>
+        <v>0.872064989763252</v>
       </c>
     </row>
     <row r="27">
@@ -2723,19 +2723,19 @@
         <v>22217</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>14793</v>
+        <v>14329</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>34213</v>
+        <v>33893</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04945964738267645</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03293223174568116</v>
+        <v>0.03190011685107507</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07616629830778199</v>
+        <v>0.07545307503151623</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>21</v>
@@ -2744,19 +2744,19 @@
         <v>20941</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>13668</v>
+        <v>13727</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>31132</v>
+        <v>31638</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04950152742295277</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03230976778041274</v>
+        <v>0.03244919777118421</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07359234160884474</v>
+        <v>0.0747884735204226</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>43</v>
@@ -2765,19 +2765,19 @@
         <v>43158</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>31880</v>
+        <v>31239</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>56882</v>
+        <v>56250</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04947995940445268</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03655060178972293</v>
+        <v>0.03581463628228314</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0652142154690168</v>
+        <v>0.06448985495264993</v>
       </c>
     </row>
     <row r="5">
@@ -2794,19 +2794,19 @@
         <v>426977</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>414981</v>
+        <v>415301</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>434401</v>
+        <v>434865</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9505403526173235</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.923833701692218</v>
+        <v>0.9245469249684837</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9670677682543188</v>
+        <v>0.9680998831489248</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>393</v>
@@ -2815,19 +2815,19 @@
         <v>402094</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>391903</v>
+        <v>391397</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>409367</v>
+        <v>409308</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9504984725770472</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.926407658391155</v>
+        <v>0.9252115264795773</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9676902322195872</v>
+        <v>0.9675508022288157</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>812</v>
@@ -2836,19 +2836,19 @@
         <v>829071</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>815347</v>
+        <v>815979</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>840349</v>
+        <v>840990</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9505200405955473</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9347857845309832</v>
+        <v>0.9355101450473501</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9634493982102771</v>
+        <v>0.9641853637177169</v>
       </c>
     </row>
     <row r="6">
@@ -2940,19 +2940,19 @@
         <v>63681</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>49029</v>
+        <v>50430</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>80459</v>
+        <v>79823</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0933442903567373</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07186703597624747</v>
+        <v>0.07392136918853864</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1179386415073845</v>
+        <v>0.117006087455724</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>68</v>
@@ -2961,19 +2961,19 @@
         <v>72331</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>56908</v>
+        <v>58103</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>90622</v>
+        <v>89873</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1217666628092161</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09580335890625599</v>
+        <v>0.09781459953782431</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1525601655928402</v>
+        <v>0.1512988494393932</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>130</v>
@@ -2982,19 +2982,19 @@
         <v>136011</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>115937</v>
+        <v>116579</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>160935</v>
+        <v>161080</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1065733215729892</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09084410405670675</v>
+        <v>0.09134725564677103</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1261025010722663</v>
+        <v>0.1262158050422338</v>
       </c>
     </row>
     <row r="8">
@@ -3011,19 +3011,19 @@
         <v>618531</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>601753</v>
+        <v>602389</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>633183</v>
+        <v>631782</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9066557096432627</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8820613584926155</v>
+        <v>0.8829939125442759</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9281329640237524</v>
+        <v>0.9260786308114614</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>487</v>
@@ -3032,19 +3032,19 @@
         <v>521680</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>503389</v>
+        <v>504138</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>537103</v>
+        <v>535908</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8782333371907839</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8474398344071598</v>
+        <v>0.8487011505606068</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.904196641093744</v>
+        <v>0.9021854004621757</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1087</v>
@@ -3053,19 +3053,19 @@
         <v>1140212</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1115288</v>
+        <v>1115143</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1160286</v>
+        <v>1159644</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8934266784270108</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8738974989277321</v>
+        <v>0.8737841949577663</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.909155895943293</v>
+        <v>0.908652744353229</v>
       </c>
     </row>
     <row r="9">
@@ -3157,19 +3157,19 @@
         <v>116959</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>97870</v>
+        <v>98778</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>138240</v>
+        <v>138853</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1753803004997952</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1467561072140383</v>
+        <v>0.1481181662554702</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2072912068813999</v>
+        <v>0.2082107214547779</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>98</v>
@@ -3178,19 +3178,19 @@
         <v>104731</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>85989</v>
+        <v>85778</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>124557</v>
+        <v>125959</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1517673259714666</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1246071133324957</v>
+        <v>0.1243021557132252</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1804969091362609</v>
+        <v>0.1825289534381514</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>208</v>
@@ -3199,19 +3199,19 @@
         <v>221690</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>194884</v>
+        <v>195781</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>249198</v>
+        <v>251894</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1633720565408434</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1436178336031254</v>
+        <v>0.1442784010273352</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1836434317029974</v>
+        <v>0.1856302820596481</v>
       </c>
     </row>
     <row r="11">
@@ -3228,19 +3228,19 @@
         <v>549929</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>528648</v>
+        <v>528035</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>569018</v>
+        <v>568110</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8246196995002048</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7927087931186001</v>
+        <v>0.791789278545222</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8532438927859616</v>
+        <v>0.8518818337445296</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>549</v>
@@ -3249,19 +3249,19 @@
         <v>585346</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>565520</v>
+        <v>564118</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>604088</v>
+        <v>604299</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8482326740285334</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8195030908637392</v>
+        <v>0.8174710465618485</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8753928866675043</v>
+        <v>0.8756978442867748</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1076</v>
@@ -3270,19 +3270,19 @@
         <v>1135275</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1107767</v>
+        <v>1105071</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1162081</v>
+        <v>1161184</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8366279434591566</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.816356568297003</v>
+        <v>0.814369717940352</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8563821663968746</v>
+        <v>0.8557215989726648</v>
       </c>
     </row>
     <row r="12">
@@ -3374,19 +3374,19 @@
         <v>121745</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>103554</v>
+        <v>99848</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>144762</v>
+        <v>144680</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2014235261359172</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1713276125843363</v>
+        <v>0.1651951739674187</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2395051358865485</v>
+        <v>0.239368813647397</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>123</v>
@@ -3395,19 +3395,19 @@
         <v>136450</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>115700</v>
+        <v>116634</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>160165</v>
+        <v>159950</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2280906185167799</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1934040370971287</v>
+        <v>0.1949665776497997</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2677323569616367</v>
+        <v>0.2673725859150077</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>229</v>
@@ -3416,19 +3416,19 @@
         <v>258195</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>229948</v>
+        <v>228380</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>290774</v>
+        <v>291474</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2146883850483304</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1912008102916506</v>
+        <v>0.1898974151762202</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.241777370793854</v>
+        <v>0.242359470029362</v>
       </c>
     </row>
     <row r="14">
@@ -3445,19 +3445,19 @@
         <v>482678</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>459661</v>
+        <v>459743</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>500869</v>
+        <v>504575</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7985764738640828</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7604948641134516</v>
+        <v>0.7606311863526029</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8286723874156637</v>
+        <v>0.8348048260325812</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>400</v>
@@ -3466,19 +3466,19 @@
         <v>461778</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>438063</v>
+        <v>438278</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>482528</v>
+        <v>481594</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7719093814832201</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7322676430383633</v>
+        <v>0.7326274140849922</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8065959629028714</v>
+        <v>0.8050334223502003</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>834</v>
@@ -3487,19 +3487,19 @@
         <v>944456</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>911877</v>
+        <v>911177</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>972703</v>
+        <v>974271</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7853116149516696</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7582226292061458</v>
+        <v>0.7576405299706379</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8087991897083492</v>
+        <v>0.8101025848237797</v>
       </c>
     </row>
     <row r="15">
@@ -3591,19 +3591,19 @@
         <v>94121</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>77185</v>
+        <v>76795</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>112100</v>
+        <v>113323</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2244343077134839</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.184050396864349</v>
+        <v>0.183120662895521</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2673056127367949</v>
+        <v>0.2702221350783168</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>120</v>
@@ -3612,19 +3612,19 @@
         <v>129689</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>111089</v>
+        <v>109527</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>151089</v>
+        <v>149942</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2971575845555586</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2545386842800417</v>
+        <v>0.2509589566979223</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3461913865659222</v>
+        <v>0.343562366685612</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>208</v>
@@ -3633,19 +3633,19 @@
         <v>223810</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>197188</v>
+        <v>198061</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>250624</v>
+        <v>248996</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2615208738793898</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2304131977742448</v>
+        <v>0.2314334522716574</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2928522904337801</v>
+        <v>0.2909504154921438</v>
       </c>
     </row>
     <row r="17">
@@ -3662,19 +3662,19 @@
         <v>325249</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>307270</v>
+        <v>306047</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>342185</v>
+        <v>342575</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7755656922865162</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7326943872632051</v>
+        <v>0.7297778649216832</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8159496031356509</v>
+        <v>0.816879337104479</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>275</v>
@@ -3683,19 +3683,19 @@
         <v>306743</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>285343</v>
+        <v>286490</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>325343</v>
+        <v>326905</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7028424154444414</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6538086134340777</v>
+        <v>0.6564376333143881</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7454613157199583</v>
+        <v>0.7490410433020775</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>571</v>
@@ -3704,19 +3704,19 @@
         <v>631993</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>605179</v>
+        <v>606807</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>658615</v>
+        <v>657742</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7384791261206103</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7071477095662199</v>
+        <v>0.7090495845078563</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7695868022257552</v>
+        <v>0.7685665477283428</v>
       </c>
     </row>
     <row r="18">
@@ -3808,19 +3808,19 @@
         <v>78664</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>64031</v>
+        <v>63409</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>96200</v>
+        <v>97688</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2593501328199518</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2111064763962809</v>
+        <v>0.2090576062605273</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3171660843741888</v>
+        <v>0.3220728621027099</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>131</v>
@@ -3829,19 +3829,19 @@
         <v>135023</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>117804</v>
+        <v>117545</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>152992</v>
+        <v>153263</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4105316634638378</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.358178068921165</v>
+        <v>0.3573906294486688</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4651665737251178</v>
+        <v>0.4659890298528684</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>202</v>
@@ -3850,19 +3850,19 @@
         <v>213687</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>187389</v>
+        <v>191221</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>237538</v>
+        <v>240409</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3380001907250312</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2964038980781242</v>
+        <v>0.3024656182063122</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3757262555858941</v>
+        <v>0.3802675089174588</v>
       </c>
     </row>
     <row r="20">
@@ -3879,19 +3879,19 @@
         <v>224647</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>207111</v>
+        <v>205623</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>239280</v>
+        <v>239902</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7406498671800482</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6828339156258113</v>
+        <v>0.6779271378972901</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7888935236037192</v>
+        <v>0.7909423937394729</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>188</v>
@@ -3900,19 +3900,19 @@
         <v>193875</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>175906</v>
+        <v>175635</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>211094</v>
+        <v>211353</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5894683365361622</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5348334262748822</v>
+        <v>0.5340109701471315</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.641821931078835</v>
+        <v>0.6426093705513313</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>393</v>
@@ -3921,19 +3921,19 @@
         <v>418522</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>394671</v>
+        <v>391800</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>444820</v>
+        <v>440988</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6619998092749687</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.624273744414106</v>
+        <v>0.6197324910825412</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7035961019218757</v>
+        <v>0.6975343817936878</v>
       </c>
     </row>
     <row r="21">
@@ -4025,19 +4025,19 @@
         <v>57916</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>44293</v>
+        <v>43741</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>71462</v>
+        <v>71576</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2465135820021503</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.188529829804739</v>
+        <v>0.1861790588513305</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3041685458823256</v>
+        <v>0.3046532985940607</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>108</v>
@@ -4046,19 +4046,19 @@
         <v>118844</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>101259</v>
+        <v>102241</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>138438</v>
+        <v>138948</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3527979979561559</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3005951139859676</v>
+        <v>0.3035123928485085</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4109657532904575</v>
+        <v>0.4124801776421841</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>159</v>
@@ -4067,19 +4067,19 @@
         <v>176760</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>155191</v>
+        <v>154638</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>203046</v>
+        <v>199799</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3091280170801942</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2714075596090252</v>
+        <v>0.270439461161245</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3550982078090393</v>
+        <v>0.3494205102378454</v>
       </c>
     </row>
     <row r="23">
@@ -4096,19 +4096,19 @@
         <v>177025</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>163479</v>
+        <v>163365</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>190648</v>
+        <v>191200</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7534864179978497</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6958314541176744</v>
+        <v>0.6953467014059393</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8114701701952611</v>
+        <v>0.8138209411486695</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>195</v>
@@ -4117,19 +4117,19 @@
         <v>218017</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>198423</v>
+        <v>197913</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>235602</v>
+        <v>234620</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6472020020438441</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5890342467095426</v>
+        <v>0.5875198223578156</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6994048860140325</v>
+        <v>0.6964876071514915</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>353</v>
@@ -4138,19 +4138,19 @@
         <v>395042</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>368756</v>
+        <v>372003</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>416611</v>
+        <v>417164</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6908719829198058</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6449017921909607</v>
+        <v>0.6505794897621546</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7285924403909748</v>
+        <v>0.7295605388387556</v>
       </c>
     </row>
     <row r="24">
@@ -4242,19 +4242,19 @@
         <v>555303</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>509525</v>
+        <v>515435</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>605647</v>
+        <v>603805</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1652519369933603</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1516289655994046</v>
+        <v>0.153387701039976</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1802338987128513</v>
+        <v>0.1796858143168582</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>669</v>
@@ -4263,19 +4263,19 @@
         <v>718009</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>672690</v>
+        <v>671745</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>770058</v>
+        <v>767903</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2107116530554805</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1974121597492258</v>
+        <v>0.1971348882414079</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2259863696221692</v>
+        <v>0.2253540689922032</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1179</v>
@@ -4284,19 +4284,19 @@
         <v>1273311</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1205324</v>
+        <v>1198779</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1339959</v>
+        <v>1333796</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1881403202191062</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1780946611697248</v>
+        <v>0.1771276022033057</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1979878712914117</v>
+        <v>0.1970773354030113</v>
       </c>
     </row>
     <row r="26">
@@ -4313,19 +4313,19 @@
         <v>2805037</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2754693</v>
+        <v>2756535</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2850815</v>
+        <v>2844905</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8347480630066397</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8197661012871489</v>
+        <v>0.8203141856831417</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8483710344005957</v>
+        <v>0.8466122989600241</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2487</v>
@@ -4334,19 +4334,19 @@
         <v>2689533</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2637484</v>
+        <v>2639639</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2734852</v>
+        <v>2735797</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7892883469445194</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7740136303778308</v>
+        <v>0.7746459310077967</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8025878402507742</v>
+        <v>0.8028651117585921</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5126</v>
@@ -4355,19 +4355,19 @@
         <v>5494571</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5427923</v>
+        <v>5434086</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5562558</v>
+        <v>5569103</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8118596797808938</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8020121287085882</v>
+        <v>0.8029226645969885</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8219053388302749</v>
+        <v>0.822872397796694</v>
       </c>
     </row>
     <row r="27">
@@ -4702,19 +4702,19 @@
         <v>19042</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11591</v>
+        <v>11211</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>30926</v>
+        <v>29121</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04704718080954778</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02863720580155359</v>
+        <v>0.02769930173949679</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07641018001093515</v>
+        <v>0.07194938128349153</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>19</v>
@@ -4723,19 +4723,19 @@
         <v>17817</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>11308</v>
+        <v>10922</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>27576</v>
+        <v>26548</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04660264702783989</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02957745301658416</v>
+        <v>0.02856730698788448</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07212953434509418</v>
+        <v>0.06943926847247013</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>36</v>
@@ -4744,19 +4744,19 @@
         <v>36859</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>26575</v>
+        <v>25929</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>51198</v>
+        <v>49386</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04683124640586572</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03376490275780483</v>
+        <v>0.03294453909017465</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06505042551076443</v>
+        <v>0.06274718437311762</v>
       </c>
     </row>
     <row r="5">
@@ -4773,19 +4773,19 @@
         <v>385698</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>373814</v>
+        <v>375619</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>393149</v>
+        <v>393529</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9529528191904523</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9235898199890653</v>
+        <v>0.9280506187165084</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9713627941984468</v>
+        <v>0.972300698260503</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>372</v>
@@ -4794,19 +4794,19 @@
         <v>364499</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>354740</v>
+        <v>355768</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>371008</v>
+        <v>371394</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9533973529721601</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9278704656549057</v>
+        <v>0.9305607315275298</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9704225469834158</v>
+        <v>0.9714326930121154</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>734</v>
@@ -4815,19 +4815,19 @@
         <v>750197</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>735858</v>
+        <v>737670</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>760481</v>
+        <v>761127</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9531687535941343</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9349495744892355</v>
+        <v>0.9372528156268825</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9662350972421951</v>
+        <v>0.9670554609098253</v>
       </c>
     </row>
     <row r="6">
@@ -4919,19 +4919,19 @@
         <v>49801</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>36903</v>
+        <v>37758</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>65347</v>
+        <v>65228</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08655814998057768</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0641415359559698</v>
+        <v>0.06562698956830962</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1135802142217684</v>
+        <v>0.1133719887136797</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>68</v>
@@ -4940,19 +4940,19 @@
         <v>67330</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>53894</v>
+        <v>53552</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>83363</v>
+        <v>83724</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1245764765693051</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0997155083475624</v>
+        <v>0.09908256241761768</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1542399982753709</v>
+        <v>0.1549085495277503</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>114</v>
@@ -4961,19 +4961,19 @@
         <v>117131</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>98103</v>
+        <v>95467</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>137269</v>
+        <v>137315</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1049733200715308</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08792016565128008</v>
+        <v>0.08555803557781481</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1230210734962033</v>
+        <v>0.1230620843946084</v>
       </c>
     </row>
     <row r="8">
@@ -4990,19 +4990,19 @@
         <v>525541</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>509995</v>
+        <v>510114</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>538439</v>
+        <v>537584</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9134418500194224</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8864197857782316</v>
+        <v>0.8866280112863203</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9358584640440302</v>
+        <v>0.9343730104316904</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>488</v>
@@ -5011,19 +5011,19 @@
         <v>473145</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>457112</v>
+        <v>456751</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>486581</v>
+        <v>486923</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.875423523430695</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8457600017246291</v>
+        <v>0.8450914504722498</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9002844916524375</v>
+        <v>0.9009174375823824</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>994</v>
@@ -5032,19 +5032,19 @@
         <v>998685</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>978547</v>
+        <v>978501</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1017713</v>
+        <v>1020349</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8950266799284692</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8769789265037967</v>
+        <v>0.8769379156053916</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9120798343487199</v>
+        <v>0.9144419644221852</v>
       </c>
     </row>
     <row r="9">
@@ -5136,19 +5136,19 @@
         <v>88007</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>72474</v>
+        <v>71212</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>107060</v>
+        <v>107937</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1344665392445167</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.110733342887075</v>
+        <v>0.108804939241858</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1635784843204691</v>
+        <v>0.164917179166889</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>82</v>
@@ -5157,19 +5157,19 @@
         <v>81885</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>67364</v>
+        <v>65466</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>101019</v>
+        <v>100835</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1283548675181418</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1055929574242306</v>
+        <v>0.1026181728095816</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1583460939532781</v>
+        <v>0.1580578066746877</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>166</v>
@@ -5178,19 +5178,19 @@
         <v>169892</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>146659</v>
+        <v>147980</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>196581</v>
+        <v>200826</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.131449783568873</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1134734390335716</v>
+        <v>0.1144959023143185</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1520992264462001</v>
+        <v>0.1553841832843271</v>
       </c>
     </row>
     <row r="11">
@@ -5207,19 +5207,19 @@
         <v>566483</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>547430</v>
+        <v>546553</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>582016</v>
+        <v>583278</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8655334607554833</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8364215156795308</v>
+        <v>0.8350828208331103</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8892666571129255</v>
+        <v>0.8911950607581418</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>560</v>
@@ -5228,19 +5228,19 @@
         <v>556076</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>536942</v>
+        <v>537126</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>570597</v>
+        <v>572495</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8716451324818582</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.841653906046722</v>
+        <v>0.8419421933253126</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8944070425757695</v>
+        <v>0.8973818271904185</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1101</v>
@@ -5249,19 +5249,19 @@
         <v>1122559</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1095870</v>
+        <v>1091625</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1145792</v>
+        <v>1144471</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.868550216431127</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8479007735537999</v>
+        <v>0.8446158167156727</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8865265609664286</v>
+        <v>0.8855040976856812</v>
       </c>
     </row>
     <row r="12">
@@ -5353,19 +5353,19 @@
         <v>146680</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>125240</v>
+        <v>122156</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>167450</v>
+        <v>168911</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2339454830037673</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1997492766918957</v>
+        <v>0.194831115919432</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2670714127753344</v>
+        <v>0.2694014828503456</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>95</v>
@@ -5374,19 +5374,19 @@
         <v>102321</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>85758</v>
+        <v>84834</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>124882</v>
+        <v>121647</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1633372528631717</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1368977135151953</v>
+        <v>0.1354224080817751</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1993514171456823</v>
+        <v>0.1941882420375346</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>228</v>
@@ -5395,19 +5395,19 @@
         <v>249001</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>221795</v>
+        <v>220530</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>281230</v>
+        <v>277106</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1986566840717304</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1769513825209552</v>
+        <v>0.1759415061535639</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2243692660201873</v>
+        <v>0.2210786512363701</v>
       </c>
     </row>
     <row r="14">
@@ -5424,19 +5424,19 @@
         <v>480305</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>459535</v>
+        <v>458074</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>501745</v>
+        <v>504829</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7660545169962327</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7329285872246653</v>
+        <v>0.7305985171496544</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8002507233081041</v>
+        <v>0.8051688840805676</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>486</v>
@@ -5445,19 +5445,19 @@
         <v>524120</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>501559</v>
+        <v>504794</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>540683</v>
+        <v>541607</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8366627471368283</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8006485828543177</v>
+        <v>0.8058117579624653</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8631022864848047</v>
+        <v>0.8645775919182246</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>920</v>
@@ -5466,19 +5466,19 @@
         <v>1004425</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>972196</v>
+        <v>976320</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1031631</v>
+        <v>1032896</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8013433159282696</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7756307339798127</v>
+        <v>0.7789213487636301</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8230486174790448</v>
+        <v>0.8240584938464363</v>
       </c>
     </row>
     <row r="15">
@@ -5570,19 +5570,19 @@
         <v>113239</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>95745</v>
+        <v>92746</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>132216</v>
+        <v>132185</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2441662205216225</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2064458083645727</v>
+        <v>0.1999792921063459</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2850842621960346</v>
+        <v>0.2850174908398687</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>114</v>
@@ -5591,19 +5591,19 @@
         <v>128324</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>109302</v>
+        <v>109238</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>150314</v>
+        <v>149360</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2708139905225936</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2306685617925825</v>
+        <v>0.2305335554221235</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3172197615102957</v>
+        <v>0.3152076494269664</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>215</v>
@@ -5612,19 +5612,19 @@
         <v>241563</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>213060</v>
+        <v>211573</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>268795</v>
+        <v>269842</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2576332033392361</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2272345239196236</v>
+        <v>0.2256482882656619</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2866768955061545</v>
+        <v>0.2877938602016386</v>
       </c>
     </row>
     <row r="17">
@@ -5641,19 +5641,19 @@
         <v>350538</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>331561</v>
+        <v>331592</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>368032</v>
+        <v>371031</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7558337794783775</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7149157378039651</v>
+        <v>0.7149825091601305</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7935541916354272</v>
+        <v>0.8000207078936539</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>299</v>
@@ -5662,19 +5662,19 @@
         <v>345523</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>323533</v>
+        <v>324487</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>364545</v>
+        <v>364609</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7291860094774064</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6827802384897039</v>
+        <v>0.6847923505730339</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7693314382074173</v>
+        <v>0.7694664445778775</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>610</v>
@@ -5683,19 +5683,19 @@
         <v>696060</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>668828</v>
+        <v>667781</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>724563</v>
+        <v>726050</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7423667966607639</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7133231044938454</v>
+        <v>0.7122061397983614</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7727654760803764</v>
+        <v>0.7743517117343381</v>
       </c>
     </row>
     <row r="18">
@@ -5787,19 +5787,19 @@
         <v>89778</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>75355</v>
+        <v>73815</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>107484</v>
+        <v>104883</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2822075404797834</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.236868752073026</v>
+        <v>0.2320283716935555</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3378639966779142</v>
+        <v>0.3296875353512959</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>102</v>
@@ -5808,19 +5808,19 @@
         <v>109397</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>93045</v>
+        <v>92613</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>126966</v>
+        <v>128318</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3148122146837424</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2677539870765616</v>
+        <v>0.266511679052234</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3653711020511951</v>
+        <v>0.3692607000262782</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>189</v>
@@ -5829,19 +5829,19 @@
         <v>199175</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>176291</v>
+        <v>174276</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>222868</v>
+        <v>222871</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2992292339106684</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2648485149522228</v>
+        <v>0.2618216973143968</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3348232057524569</v>
+        <v>0.3348279381640208</v>
       </c>
     </row>
     <row r="20">
@@ -5858,19 +5858,19 @@
         <v>228350</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>210644</v>
+        <v>213245</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>242773</v>
+        <v>244313</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7177924595202166</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6621360033220859</v>
+        <v>0.6703124646487042</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7631312479269741</v>
+        <v>0.7679716283064446</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>223</v>
@@ -5879,19 +5879,19 @@
         <v>238103</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>220534</v>
+        <v>219182</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>254455</v>
+        <v>254887</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6851877853162576</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6346288979488046</v>
+        <v>0.6307392999737217</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7322460129234384</v>
+        <v>0.7334883209477659</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>445</v>
@@ -5900,19 +5900,19 @@
         <v>466453</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>442760</v>
+        <v>442757</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>489337</v>
+        <v>491352</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7007707660893316</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6651767942475431</v>
+        <v>0.6651720618359792</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7351514850477774</v>
+        <v>0.7381783026856032</v>
       </c>
     </row>
     <row r="21">
@@ -6004,19 +6004,19 @@
         <v>49949</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>39654</v>
+        <v>39449</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>62435</v>
+        <v>62741</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2167416931728732</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1720674313214952</v>
+        <v>0.1711782132844972</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2709213595403661</v>
+        <v>0.2722498703683074</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>88</v>
@@ -6025,19 +6025,19 @@
         <v>117402</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>98346</v>
+        <v>97999</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>138824</v>
+        <v>138046</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3517277340109384</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2946373642407448</v>
+        <v>0.2935971006322211</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4159047170995543</v>
+        <v>0.4135739282204235</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>145</v>
@@ -6046,19 +6046,19 @@
         <v>167352</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>143805</v>
+        <v>143859</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>192121</v>
+        <v>189999</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2965951849181026</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2548633491400555</v>
+        <v>0.2549587227202008</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3404935646987355</v>
+        <v>0.3367317746445704</v>
       </c>
     </row>
     <row r="23">
@@ -6075,19 +6075,19 @@
         <v>180506</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>168020</v>
+        <v>167714</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>190801</v>
+        <v>191006</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7832583068271268</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7290786404596341</v>
+        <v>0.7277501296316932</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8279325686785048</v>
+        <v>0.828821786715503</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>164</v>
@@ -6096,19 +6096,19 @@
         <v>216386</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>194964</v>
+        <v>195742</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>235442</v>
+        <v>235789</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6482722659890616</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5840952829004455</v>
+        <v>0.5864260717795765</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7053626357592552</v>
+        <v>0.7064028993677788</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>379</v>
@@ -6117,19 +6117,19 @@
         <v>396891</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>372122</v>
+        <v>374244</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>420438</v>
+        <v>420384</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7034048150818974</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6595064353012644</v>
+        <v>0.6632682253554295</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7451366508599444</v>
+        <v>0.7450412772797991</v>
       </c>
     </row>
     <row r="24">
@@ -6221,19 +6221,19 @@
         <v>556496</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>514088</v>
+        <v>514045</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>598081</v>
+        <v>601672</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1699786011504099</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1570254086604667</v>
+        <v>0.1570121827020046</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1826807526177207</v>
+        <v>0.1837775042048599</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>568</v>
@@ -6242,19 +6242,19 @@
         <v>624478</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>581536</v>
+        <v>580852</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>669814</v>
+        <v>673040</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1868392714366687</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1739914460676</v>
+        <v>0.1737867581413026</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2004033091940753</v>
+        <v>0.2013686481608608</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1093</v>
@@ -6263,19 +6263,19 @@
         <v>1180974</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1108972</v>
+        <v>1118694</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1241832</v>
+        <v>1241984</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1784961065829205</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.167613575970413</v>
+        <v>0.169082959754227</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1876944203854455</v>
+        <v>0.1877174176137923</v>
       </c>
     </row>
     <row r="26">
@@ -6292,19 +6292,19 @@
         <v>2717420</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2675835</v>
+        <v>2672244</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2759828</v>
+        <v>2759871</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8300213988495901</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8173192473822793</v>
+        <v>0.8162224957951403</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8429745913395333</v>
+        <v>0.8429878172979954</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2592</v>
@@ -6313,19 +6313,19 @@
         <v>2717850</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2672514</v>
+        <v>2669288</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2760792</v>
+        <v>2761476</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8131607285633313</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7995966908059244</v>
+        <v>0.7986313518391396</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8260085539323996</v>
+        <v>0.8262132418586977</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5183</v>
@@ -6334,19 +6334,19 @@
         <v>5435270</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5374412</v>
+        <v>5374260</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5507272</v>
+        <v>5497550</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8215038934170795</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8123055796145546</v>
+        <v>0.8122825823862078</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8323864240295871</v>
+        <v>0.8309170402457732</v>
       </c>
     </row>
     <row r="27">
@@ -6681,19 +6681,19 @@
         <v>25942</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>13008</v>
+        <v>13974</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45640</v>
+        <v>48104</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.06534444302693436</v>
+        <v>0.06534444302693437</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03276417649168412</v>
+        <v>0.0351984778300257</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1149602480669837</v>
+        <v>0.121165680134778</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -6702,19 +6702,19 @@
         <v>25927</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>14622</v>
+        <v>15011</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>41481</v>
+        <v>42671</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07341321956071423</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04140369456234614</v>
+        <v>0.04250497710653596</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.117457270275454</v>
+        <v>0.1208252519311881</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>25</v>
@@ -6723,19 +6723,19 @@
         <v>51869</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>34867</v>
+        <v>33349</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>77780</v>
+        <v>73932</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06914301022315718</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04647948787422879</v>
+        <v>0.04445490217957022</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1036839348131954</v>
+        <v>0.0985534949370362</v>
       </c>
     </row>
     <row r="5">
@@ -6752,19 +6752,19 @@
         <v>371067</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>351369</v>
+        <v>348905</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>384001</v>
+        <v>383035</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9346555569730655</v>
+        <v>0.9346555569730657</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8850397519330163</v>
+        <v>0.8788343198652221</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9672358235083159</v>
+        <v>0.9648015221699743</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>188</v>
@@ -6773,19 +6773,19 @@
         <v>327232</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>311678</v>
+        <v>310488</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>338537</v>
+        <v>338148</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.926586780439286</v>
+        <v>0.9265867804392857</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8825427297245458</v>
+        <v>0.8791747480688119</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.958596305437654</v>
+        <v>0.957495022893464</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>346</v>
@@ -6794,19 +6794,19 @@
         <v>698299</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>672388</v>
+        <v>676236</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>715301</v>
+        <v>716819</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9308569897768427</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8963160651868046</v>
+        <v>0.9014465050629639</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9535205121257712</v>
+        <v>0.9555450978204298</v>
       </c>
     </row>
     <row r="6">
@@ -6898,19 +6898,19 @@
         <v>48662</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>33010</v>
+        <v>33555</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>66378</v>
+        <v>69213</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1028274249107468</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06975236279394668</v>
+        <v>0.07090404038645223</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1402617223039376</v>
+        <v>0.1462530094574991</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>51</v>
@@ -6919,19 +6919,19 @@
         <v>55665</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>41448</v>
+        <v>40612</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>70410</v>
+        <v>71439</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1128916638629443</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08405936700514026</v>
+        <v>0.08236287260319364</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.14279486944484</v>
+        <v>0.1448812552791382</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>82</v>
@@ -6940,19 +6940,19 @@
         <v>104328</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>84757</v>
+        <v>83260</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>128711</v>
+        <v>129555</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1079628720509587</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0877107329112404</v>
+        <v>0.08616125030460206</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1331959248807761</v>
+        <v>0.1340692724455695</v>
       </c>
     </row>
     <row r="8">
@@ -6969,19 +6969,19 @@
         <v>424581</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>406865</v>
+        <v>404030</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>440233</v>
+        <v>439688</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8971725750892532</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8597382776960624</v>
+        <v>0.8537469905425001</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9302476372060534</v>
+        <v>0.9290959596135475</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>403</v>
@@ -6990,19 +6990,19 @@
         <v>437420</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>422675</v>
+        <v>421646</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>451637</v>
+        <v>452473</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8871083361370558</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.85720513055516</v>
+        <v>0.8551187447208617</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9159406329948596</v>
+        <v>0.9176371273968064</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>672</v>
@@ -7011,19 +7011,19 @@
         <v>862000</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>837617</v>
+        <v>836773</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>881571</v>
+        <v>883068</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8920371279490413</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8668040751192246</v>
+        <v>0.8659307275544303</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9122892670887596</v>
+        <v>0.913838749695398</v>
       </c>
     </row>
     <row r="9">
@@ -7115,19 +7115,19 @@
         <v>88814</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>72463</v>
+        <v>69757</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>109260</v>
+        <v>106393</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1446540274663874</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1180233240132294</v>
+        <v>0.1136163366954969</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1779547293303269</v>
+        <v>0.1732864546189085</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>129</v>
@@ -7136,19 +7136,19 @@
         <v>93911</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>79393</v>
+        <v>78211</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>110129</v>
+        <v>109958</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.1523079949669883</v>
+        <v>0.1523079949669882</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1287614056217378</v>
+        <v>0.1268447975399111</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1786101702314488</v>
+        <v>0.1783324262087683</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>208</v>
@@ -7157,19 +7157,19 @@
         <v>182725</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>158589</v>
+        <v>161325</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>208059</v>
+        <v>207328</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1484891394522775</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1288752612130989</v>
+        <v>0.1310989207597983</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.169076280208531</v>
+        <v>0.1684823846064701</v>
       </c>
     </row>
     <row r="11">
@@ -7186,19 +7186,19 @@
         <v>525160</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>504714</v>
+        <v>507581</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>541511</v>
+        <v>544217</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8553459725336127</v>
+        <v>0.8553459725336124</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8220452706696729</v>
+        <v>0.8267135453810915</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8819766759867704</v>
+        <v>0.886383663304503</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>710</v>
@@ -7207,19 +7207,19 @@
         <v>522677</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>506459</v>
+        <v>506630</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>537195</v>
+        <v>538377</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8476920050330118</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8213898297685511</v>
+        <v>0.8216675737912312</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.871238594378262</v>
+        <v>0.8731552024600887</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1172</v>
@@ -7228,19 +7228,19 @@
         <v>1047838</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1022504</v>
+        <v>1023235</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1071974</v>
+        <v>1069238</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8515108605477223</v>
+        <v>0.8515108605477225</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.830923719791469</v>
+        <v>0.8315176153935291</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8711247387869011</v>
+        <v>0.8689010792402018</v>
       </c>
     </row>
     <row r="12">
@@ -7332,19 +7332,19 @@
         <v>139751</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>119103</v>
+        <v>119408</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>162951</v>
+        <v>162845</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.202888577676304</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1729116370602476</v>
+        <v>0.1733550062130463</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2365689250089224</v>
+        <v>0.2364154423315162</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>186</v>
@@ -7353,19 +7353,19 @@
         <v>120936</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>106667</v>
+        <v>104351</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>137932</v>
+        <v>138296</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1687113613937938</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1488053373142559</v>
+        <v>0.1455748845813798</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1924213450022331</v>
+        <v>0.1929298442108006</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>319</v>
@@ -7374,19 +7374,19 @@
         <v>260687</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>234317</v>
+        <v>234133</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>289523</v>
+        <v>287688</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1854594051533248</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.166699259148482</v>
+        <v>0.1665683398949346</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2059741994071093</v>
+        <v>0.2046685738153989</v>
       </c>
     </row>
     <row r="14">
@@ -7403,19 +7403,19 @@
         <v>549057</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>525857</v>
+        <v>525963</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>569705</v>
+        <v>569400</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7971114223236959</v>
+        <v>0.797111422323696</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7634310749910774</v>
+        <v>0.7635845576684838</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8270883629397522</v>
+        <v>0.8266449937869536</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>925</v>
@@ -7424,19 +7424,19 @@
         <v>595885</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>578889</v>
+        <v>578525</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>610154</v>
+        <v>612470</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8312886386062061</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8075786549977668</v>
+        <v>0.8070701557891994</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.851194662685744</v>
+        <v>0.8544251154186202</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1447</v>
@@ -7445,19 +7445,19 @@
         <v>1144942</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1116106</v>
+        <v>1117941</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1171312</v>
+        <v>1171496</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8145405948466752</v>
+        <v>0.8145405948466753</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7940258005928907</v>
+        <v>0.7953314261846014</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8333007408515181</v>
+        <v>0.8334316601050655</v>
       </c>
     </row>
     <row r="15">
@@ -7549,19 +7549,19 @@
         <v>142957</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>124599</v>
+        <v>123938</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>163581</v>
+        <v>162556</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2415931673827381</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2105682569233412</v>
+        <v>0.2094522057890566</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2764479441428308</v>
+        <v>0.2747148657724808</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>207</v>
@@ -7570,19 +7570,19 @@
         <v>125648</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>111636</v>
+        <v>111386</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>141648</v>
+        <v>141320</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2129061521330447</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1891639811473139</v>
+        <v>0.188739214534108</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2400172879117518</v>
+        <v>0.239462499218302</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>363</v>
@@ -7591,19 +7591,19 @@
         <v>268605</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>243414</v>
+        <v>245507</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>294729</v>
+        <v>296205</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2272686949395254</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2059547498827267</v>
+        <v>0.2077252702998363</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2493723549803047</v>
+        <v>0.2506212774545428</v>
       </c>
     </row>
     <row r="17">
@@ -7620,19 +7620,19 @@
         <v>448769</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>428145</v>
+        <v>429170</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>467127</v>
+        <v>467788</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7584068326172619</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7235520558571694</v>
+        <v>0.7252851342275192</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7894317430766588</v>
+        <v>0.7905477942109433</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>766</v>
@@ -7641,19 +7641,19 @@
         <v>464509</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>448509</v>
+        <v>448837</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>478521</v>
+        <v>478771</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7870938478669552</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7599827120882485</v>
+        <v>0.760537500781698</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8108360188526861</v>
+        <v>0.811260785465892</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1255</v>
@@ -7662,19 +7662,19 @@
         <v>913278</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>887154</v>
+        <v>885678</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>938469</v>
+        <v>936376</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.7727313050604746</v>
+        <v>0.7727313050604747</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7506276450196951</v>
+        <v>0.7493787225454571</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7940452501172731</v>
+        <v>0.7922747297001637</v>
       </c>
     </row>
     <row r="18">
@@ -7766,19 +7766,19 @@
         <v>93057</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>80488</v>
+        <v>80485</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>108750</v>
+        <v>108383</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2362536849212277</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2043418607470525</v>
+        <v>0.2043354244743776</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2760940533945293</v>
+        <v>0.2751614510365114</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>192</v>
@@ -7787,19 +7787,19 @@
         <v>102609</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>89912</v>
+        <v>89814</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>114246</v>
+        <v>115249</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2463731467658274</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2158846558989133</v>
+        <v>0.2156508719890207</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.274312900070075</v>
+        <v>0.2767207486781836</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>322</v>
@@ -7808,19 +7808,19 @@
         <v>195667</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>176905</v>
+        <v>174492</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>214989</v>
+        <v>214309</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2414544801270383</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2183018223314453</v>
+        <v>0.2153242736705186</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2652982207412599</v>
+        <v>0.264459801355891</v>
       </c>
     </row>
     <row r="20">
@@ -7837,19 +7837,19 @@
         <v>300830</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>285137</v>
+        <v>285504</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>313399</v>
+        <v>313402</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.7637463150787723</v>
+        <v>0.7637463150787722</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7239059466054708</v>
+        <v>0.7248385489634888</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7956581392529475</v>
+        <v>0.7956645755256225</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>590</v>
@@ -7858,19 +7858,19 @@
         <v>313871</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>302234</v>
+        <v>301231</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>326568</v>
+        <v>326666</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7536268532341728</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.725687099929925</v>
+        <v>0.7232792513218166</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7841153441010867</v>
+        <v>0.7843491280109794</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1012</v>
@@ -7879,19 +7879,19 @@
         <v>614700</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>595378</v>
+        <v>596058</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>633462</v>
+        <v>635875</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7585455198729616</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7347017792587403</v>
+        <v>0.7355401986441091</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7816981776685547</v>
+        <v>0.7846757263294813</v>
       </c>
     </row>
     <row r="21">
@@ -7983,19 +7983,19 @@
         <v>48120</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>38914</v>
+        <v>38749</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>60579</v>
+        <v>59087</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1638579031708979</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1325099890255831</v>
+        <v>0.1319479300382876</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2062822737097744</v>
+        <v>0.2012038407057628</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>185</v>
@@ -8004,19 +8004,19 @@
         <v>93157</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>81235</v>
+        <v>81101</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>105359</v>
+        <v>105787</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2294532127419482</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2000900621271537</v>
+        <v>0.1997585017812759</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2595080359734051</v>
+        <v>0.2605633662342461</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>259</v>
@@ -8025,19 +8025,19 @@
         <v>141276</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>125246</v>
+        <v>126290</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>158828</v>
+        <v>157459</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2019210205514256</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1790091554328044</v>
+        <v>0.1805014702852463</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2270065549184754</v>
+        <v>0.2250498761045852</v>
       </c>
     </row>
     <row r="23">
@@ -8054,19 +8054,19 @@
         <v>245548</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>233089</v>
+        <v>234581</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>254754</v>
+        <v>254919</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.836142096829102</v>
+        <v>0.8361420968291021</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7937177262902256</v>
+        <v>0.7987961592942373</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8674900109744169</v>
+        <v>0.8680520699617124</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>582</v>
@@ -8075,19 +8075,19 @@
         <v>312837</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>300635</v>
+        <v>300207</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>324759</v>
+        <v>324893</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7705467872580517</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7404919640265949</v>
+        <v>0.7394366337657552</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7999099378728461</v>
+        <v>0.800241498218725</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>943</v>
@@ -8096,19 +8096,19 @@
         <v>558386</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>540834</v>
+        <v>542203</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>574416</v>
+        <v>573372</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7980789794485745</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7729934450815245</v>
+        <v>0.7749501238954145</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8209908445671953</v>
+        <v>0.8194985297147535</v>
       </c>
     </row>
     <row r="24">
@@ -8200,19 +8200,19 @@
         <v>587304</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>539066</v>
+        <v>538298</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>632424</v>
+        <v>630263</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1701188478098171</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1561463603124457</v>
+        <v>0.1559238264511973</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1831883927307408</v>
+        <v>0.1825625650796149</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>965</v>
@@ -8221,19 +8221,19 @@
         <v>617853</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>582723</v>
+        <v>581079</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>657904</v>
+        <v>658063</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1719944818956029</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.162215211839431</v>
+        <v>0.1617575678300949</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1831434492571926</v>
+        <v>0.1831877193253705</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1578</v>
@@ -8242,19 +8242,19 @@
         <v>1205157</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1141892</v>
+        <v>1144108</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1264879</v>
+        <v>1263225</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.1710752985301051</v>
+        <v>0.171075298530105</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1620946296369999</v>
+        <v>0.1624092396576425</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1795529247436644</v>
+        <v>0.1793181573559217</v>
       </c>
     </row>
     <row r="26">
@@ -8271,19 +8271,19 @@
         <v>2865011</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2819891</v>
+        <v>2822052</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2913249</v>
+        <v>2914017</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.829881152190183</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8168116072692594</v>
+        <v>0.8174374349203852</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8438536396875544</v>
+        <v>0.8440761735488035</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4164</v>
@@ -8292,19 +8292,19 @@
         <v>2974433</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2934382</v>
+        <v>2934223</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3009563</v>
+        <v>3011207</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8280055181043972</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8168565507428075</v>
+        <v>0.8168122806746296</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8377847881605691</v>
+        <v>0.8382424321699052</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6847</v>
@@ -8313,19 +8313,19 @@
         <v>5839444</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5779722</v>
+        <v>5781376</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5902709</v>
+        <v>5900493</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.8289247014698949</v>
+        <v>0.8289247014698951</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8204470752563355</v>
+        <v>0.8206818426440786</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8379053703630001</v>
+        <v>0.8375907603423576</v>
       </c>
     </row>
     <row r="27">
